--- a/src/Presentation/Virgol.School/BulkData/StudentTemplate.xlsx
+++ b/src/Presentation/Virgol.School/BulkData/StudentTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\lms-with-moodle\src\Presentation\Virgol.School\ClientApp\public\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D9010C-749A-400A-932D-877DC0C09DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA37548-2D11-4D21-8D21-1EC18A837AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>کد ملی/اتباع</t>
   </si>
@@ -43,12 +43,6 @@
     <t>جنسیت(دختر/پسر)</t>
   </si>
   <si>
-    <t>تست</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تست2 </t>
-  </si>
-  <si>
     <t>تست پدر</t>
   </si>
   <si>
@@ -56,6 +50,24 @@
   </si>
   <si>
     <t>پسر</t>
+  </si>
+  <si>
+    <t>رمز عبور</t>
+  </si>
+  <si>
+    <t>تكميل خودكار</t>
+  </si>
+  <si>
+    <t>تكميلي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>خودكار بدون پسورد</t>
+  </si>
+  <si>
+    <t>تکمیلی 2</t>
   </si>
 </sst>
 </file>
@@ -457,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
     <col min="3" max="6" width="13.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
@@ -497,128 +509,70 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7984597854</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>12345678521</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>9153883789</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>123456789</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4658941</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9153883790</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
